--- a/BOM Light_system (1).xlsx
+++ b/BOM Light_system (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewout\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470D218-6C3F-49AA-BAAC-5EB93D63C637}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD917FF-4C8E-42C8-84B6-BB6DE3991A49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="1290" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>Aantal</t>
   </si>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>0,0168</t>
+  </si>
+  <si>
+    <t>NUCLEO-F303K8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2500224</t>
+  </si>
+  <si>
+    <t>B250C1500G-E4/51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2889115</t>
   </si>
 </sst>
 </file>
@@ -295,8 +307,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:G31" totalsRowShown="0">
-  <autoFilter ref="A1:G31" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:G33" totalsRowShown="0">
+  <autoFilter ref="A1:G33" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DF49E3A0-0641-4903-8272-D343A8B811E1}" name="Aantal"/>
     <tableColumn id="2" xr3:uid="{9B813FAE-6E50-4889-B759-8F1CBBA9FB73}" name="Omschrijving"/>
@@ -607,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1173,46 @@
         <v>60</v>
       </c>
       <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>10.32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="F33" t="s">
         <v>50</v>
       </c>
     </row>

--- a/BOM Light_system (1).xlsx
+++ b/BOM Light_system (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewout\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basileberckmoes/GitHub/Light_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD917FF-4C8E-42C8-84B6-BB6DE3991A49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B440893-8691-5B41-A022-E20A41EB49DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t>Aantal</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t xml:space="preserve">	2889115</t>
+  </si>
+  <si>
+    <t>Wire-To-Board Terminal Block, 2.5 mm, 2 Ways</t>
   </si>
 </sst>
 </file>
@@ -291,7 +294,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,6 +312,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFA3D288-7921-423B-9F4D-B75D9CA6C0A3}" name="Table3" displayName="Table3" ref="A1:G33" totalsRowShown="0">
   <autoFilter ref="A1:G33" xr:uid="{1DFD0A97-70DC-492C-9879-99DD55AE7A81}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G33">
+    <sortCondition descending="1" ref="F1:F33"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DF49E3A0-0641-4903-8272-D343A8B811E1}" name="Aantal"/>
     <tableColumn id="2" xr3:uid="{9B813FAE-6E50-4889-B759-8F1CBBA9FB73}" name="Omschrijving"/>
@@ -323,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -619,23 +625,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,64 +664,87 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.99</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>8.5399999999999991</v>
+        <v>0.52</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>0.52</v>
+        <v>1.31</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -724,21 +753,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
-        <v>1.31</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -747,21 +776,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.9</v>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0.22</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -770,21 +799,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1990106</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>0.22</v>
+        <v>1.44</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -793,70 +822,67 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1990106</v>
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>3007333</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>2815636</v>
+        <v>9330402</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>16.690000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>3007333</v>
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1.56</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -876,354 +902,354 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>2688469</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1.4119999999999999</v>
+        <v>2.62</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>1527596</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3.44</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>9332820</v>
+        <v>1800291</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>0.52500000000000002</v>
+        <v>3.77</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>9330402</v>
+        <v>9332820</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16">
-        <v>0.751</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>2688469</v>
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>2.62</v>
+        <v>3.44</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>1800291</v>
+        <v>2815636</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>3.77</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>1527596</v>
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
       <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>26.67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <v>1792951</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="E19">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
       <c r="E20">
-        <v>26.67</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>2074972</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>1021365</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>0.39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2453311</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0.436</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>9236007</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C25">
-        <v>2074972</v>
+        <v>1750830</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="E25">
-        <v>0.53100000000000003</v>
+      <c r="E25" t="s">
+        <v>57</v>
       </c>
       <c r="F25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>10</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26">
-        <v>1021365</v>
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2910290</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
       <c r="E26">
-        <v>0.39</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="3">
-        <v>2453311</v>
+        <v>2447549</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="E27">
-        <v>0.436</v>
+      <c r="E27" t="s">
+        <v>60</v>
       </c>
       <c r="F27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28">
-        <v>9236007</v>
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
       </c>
-      <c r="E28" t="s">
-        <v>55</v>
+      <c r="E28">
+        <v>10.32</v>
       </c>
       <c r="F28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29">
-        <v>1750830</v>
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E29" t="s">
-        <v>57</v>
+      <c r="E29">
+        <v>0.65200000000000002</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2910290</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="F30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2447549</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32">
-        <v>10.32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="F33" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" display="https://be.farnell.com/on-semiconductor/mct2em/optocoupler-transistor-4-2kv-dip/dp/2453311" xr:uid="{0A678C4C-9CC2-40B4-A93C-4D941AAABA26}"/>
-    <hyperlink ref="B27" r:id="rId2" display="https://be.farnell.com/on-semiconductor/mct2em/optocoupler-transistor-4-2kv-dip/dp/2453311" xr:uid="{D4345E49-2759-4918-A182-5D98D401A1B5}"/>
-    <hyperlink ref="B30" r:id="rId3" display="https://be.farnell.com/vishay/tnpw12061k00been/resistor-thin-film-1kohm-250mw/dp/2910290" xr:uid="{65AD1F2A-2541-4D1E-BC86-CEE58F2B85D6}"/>
-    <hyperlink ref="C30" r:id="rId4" display="https://be.farnell.com/vishay/tnpw12061k00been/resistor-thin-film-1kohm-250mw/dp/2910290" xr:uid="{8778885D-E6E0-4423-84E8-A4A6FACEA3A9}"/>
-    <hyperlink ref="C31" r:id="rId5" display="https://be.farnell.com/multicomp/mcwr12x9101ftl/res-9k1-1-0-25w-thick-film/dp/2447549" xr:uid="{A42902D1-9DED-43AD-A1D8-5F85684CD8EE}"/>
+    <hyperlink ref="C23" r:id="rId1" display="https://be.farnell.com/on-semiconductor/mct2em/optocoupler-transistor-4-2kv-dip/dp/2453311" xr:uid="{0A678C4C-9CC2-40B4-A93C-4D941AAABA26}"/>
+    <hyperlink ref="B23" r:id="rId2" display="https://be.farnell.com/on-semiconductor/mct2em/optocoupler-transistor-4-2kv-dip/dp/2453311" xr:uid="{D4345E49-2759-4918-A182-5D98D401A1B5}"/>
+    <hyperlink ref="B26" r:id="rId3" display="https://be.farnell.com/vishay/tnpw12061k00been/resistor-thin-film-1kohm-250mw/dp/2910290" xr:uid="{65AD1F2A-2541-4D1E-BC86-CEE58F2B85D6}"/>
+    <hyperlink ref="C26" r:id="rId4" display="https://be.farnell.com/vishay/tnpw12061k00been/resistor-thin-film-1kohm-250mw/dp/2910290" xr:uid="{8778885D-E6E0-4423-84E8-A4A6FACEA3A9}"/>
+    <hyperlink ref="C27" r:id="rId5" display="https://be.farnell.com/multicomp/mcwr12x9101ftl/res-9k1-1-0-25w-thick-film/dp/2447549" xr:uid="{A42902D1-9DED-43AD-A1D8-5F85684CD8EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/BOM Light_system (1).xlsx
+++ b/BOM Light_system (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basileberckmoes/GitHub/Light_system/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ewout\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B440893-8691-5B41-A022-E20A41EB49DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE8137-9BC4-49CE-AFB8-D041E27427F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C87271B4-23EB-4087-839C-EEF59018C3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,12 +216,6 @@
     <t>0,0168</t>
   </si>
   <si>
-    <t>NUCLEO-F303K8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2500224</t>
-  </si>
-  <si>
     <t>B250C1500G-E4/51</t>
   </si>
   <si>
@@ -229,6 +223,12 @@
   </si>
   <si>
     <t>Wire-To-Board Terminal Block, 2.5 mm, 2 Ways</t>
+  </si>
+  <si>
+    <t>ARDUINO Development Board, Arduino Nano,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	1848691</t>
   </si>
 </sst>
 </file>
@@ -294,7 +294,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -627,21 +627,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA10BB-9DB9-41F2-920B-05DCA4009D38}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="77.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -684,7 +684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -707,7 +707,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -730,7 +730,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -753,7 +753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -799,7 +799,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -822,7 +822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -842,7 +842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -862,7 +862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -882,7 +882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -902,7 +902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -922,7 +922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -942,7 +942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -962,7 +962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -982,7 +982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1042,12 +1042,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>1792951</v>
@@ -1062,7 +1062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1202,35 +1202,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
       </c>
       <c r="E28">
-        <v>10.32</v>
+        <v>16.29</v>
       </c>
       <c r="F28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
